--- a/biology/Botanique/Micro-agriculture_biointensive/Micro-agriculture_biointensive.xlsx
+++ b/biology/Botanique/Micro-agriculture_biointensive/Micro-agriculture_biointensive.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La microagriculture biointensive est un système agricole durable visant à produire une alimentation sur de petites parcelles tout en augmentant simultanément la biodiversité et en soutenant la fertilité du sol. C'est un système agricole durable, auto-fertile et autonome en semences.
 </t>
@@ -511,13 +523,15 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De nombreuses caractéristiques de l'agriculture biointensive étaient présentes dans l'agriculture traditionnelle des Chinois, Grecs, Mayas et du début de la période moderne en Europe et en Afrique de l'Ouest depuis au moins la fin XVIIIe siècle.
-L'agriculture biointensive est développée dans la seconde moitié du XXe siècle par l'horticulteur anglais Alan Chadwick ; elle s'inspire en partie de l'agriculture biodynamique et de la méthode de maraîchage dite intensive française [1]
+L'agriculture biointensive est développée dans la seconde moitié du XXe siècle par l'horticulteur anglais Alan Chadwick ; elle s'inspire en partie de l'agriculture biodynamique et de la méthode de maraîchage dite intensive française 
 De la méthode intensive française elle reprend le travail sur buttes préparées par double-bêchage et la minimisation de l'espacement des plantes. Les apports propres d'Alan Chadwick concernent d'une part l'usage de variétés-populations ou variétés anciennes (pas d'hybrides F1 ni de variétés issues de la révolution verte) et les proportions de surfaces consacrées aux trois grands types de plantes qui y sont cultivées (voir plus bas).
-La méthode a été popularisée ensuite par John Jeavons[2]. La méthode est maintenant répandue à travers le monde, dans presque tous les climats et sols où la nourriture est cultivée[3].
-Un équivalent pour les grandes cultures est proposé, notamment par l'agronome Michel Griffon (et directeur général adjoint de l'Agence nationale de la recherche)[4] à la suite du Grenelle de l'environnement le pari d'une « agriculture écologique intensive », qu'en France une association dont le siège est à l’École supérieure d'agriculture d'Angers porte, avec le laboratoire d'agroécologie. La marque a été déposée, non pour produire un label, mais pour éviter que cette expression soit dévoyée. En Belgique, dans le Brabant wallon, la ferme de la Baillerie a lancé « un projet d'agriculture écologique »[5]
+La méthode a été popularisée ensuite par John Jeavons. La méthode est maintenant répandue à travers le monde, dans presque tous les climats et sols où la nourriture est cultivée.
+Un équivalent pour les grandes cultures est proposé, notamment par l'agronome Michel Griffon (et directeur général adjoint de l'Agence nationale de la recherche) à la suite du Grenelle de l'environnement le pari d'une « agriculture écologique intensive », qu'en France une association dont le siège est à l’École supérieure d'agriculture d'Angers porte, avec le laboratoire d'agroécologie. La marque a été déposée, non pour produire un label, mais pour éviter que cette expression soit dévoyée. En Belgique, dans le Brabant wallon, la ferme de la Baillerie a lancé « un projet d'agriculture écologique »
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Grands principes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>John Jeavons résume l'agriculture biointensive sous la forme des six principes suivants[6] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>John Jeavons résume l'agriculture biointensive sous la forme des six principes suivants :
 Culture sur butte avec double-bêchage (c’est-à-dire travail du sol sur une profondeur de deux fers de bêche, soit environ 60 cm) initial. Par la suite, lorsque le sol acquiert une bonne structure, on ne le travaille plus et n'y incorpore le compost qu'en surface, on l'ameublit sans retournement à l'aide d'une grelinette ou outil similaire. L'ameublissement du sol en profondeur permet une meilleure aération en même temps qu'une meilleure pénétration de l'eau (ce qui limite les besoins en arrosage), et permet un développement racinaire plus profond. Cela permettra aux plantes d'aller chercher plus facilement certains nutriments situés en profondeur, et d'être plantées de façon plus serrée sans qu'elles se gênent au niveau racinaire.
 Apports en matière organique humifiante (compost, mulch), cette matière étant produite par les plantes elles-mêmes. Ainsi aucun apport organique extérieur n'est indispensable après la première année de culture.
 Semis/plantations en quinconce pour mieux utiliser l'espace (pas de rangées et de bandes vides entre elles) en respectant les distances de semis/plantation propres à chaque plante. Ce mode de plantation génère un microclimat plus frais et humide à la surface du sol, ce qui limite les besoins en arrosage. Elle assure par ailleurs une meilleure résistance des plantes au vent.
@@ -587,7 +603,9 @@
           <t>Avantages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Elle enrichit le sol en humus et y permet le développement des êtres vivants associés (champignons, bactéries, vers de terre etc.)
 Elle fixe une grande quantité de carbone atmosphérique par unité de surface sous forme d'humus.
@@ -624,7 +642,9 @@
           <t>Inconvénients</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le double-bêchage initial peut représenter un effort important, notamment si le terrain est compact.
 Il est nécessaire d'appliquer en même temps les différents principes mentionnés ci-dessus.
